--- a/admin/exel/product_import.xlsx
+++ b/admin/exel/product_import.xlsx
@@ -15,38 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
-  <si>
-    <t>STT</t>
-  </si>
-  <si>
-    <t>họ tên</t>
-  </si>
-  <si>
-    <t>Chuyên Ngành</t>
-  </si>
-  <si>
-    <t>Doanh Nghiệp</t>
-  </si>
-  <si>
-    <t>Kết quả</t>
-  </si>
-  <si>
-    <t>Phạm Ngọc Hưng</t>
-  </si>
-  <si>
-    <t>Thiết kế web</t>
-  </si>
-  <si>
-    <t>Công ty thiết kế web Vinalink</t>
-  </si>
-  <si>
-    <t>Phan Tấn Khải</t>
-  </si>
-  <si>
-    <t>Nguyễn Ngọc Bảo</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -63,7 +32,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -73,6 +42,9 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -81,7 +53,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -385,79 +357,39 @@
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A1"/>
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
+      <c r="A2"/>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
+      <c r="A3"/>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/admin/exel/product_import.xlsx
+++ b/admin/exel/product_import.xlsx
@@ -355,10 +355,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -377,20 +377,6 @@
       <c r="D2"/>
       <c r="E2"/>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3"/>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4"/>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-    </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>

--- a/admin/exel/product_import.xlsx
+++ b/admin/exel/product_import.xlsx
@@ -355,7 +355,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="G18" sqref="G18"/>
@@ -376,6 +376,41 @@
       <c r="C2"/>
       <c r="D2"/>
       <c r="E2"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3"/>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/admin/exel/product_import.xlsx
+++ b/admin/exel/product_import.xlsx
@@ -355,7 +355,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="G18" sqref="G18"/>
@@ -363,54 +363,95 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="A1"/>
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1"/>
       <c r="E1"/>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2"/>
       <c r="B2"/>
       <c r="C2"/>
       <c r="D2"/>
       <c r="E2"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3"/>
       <c r="B3"/>
       <c r="C3"/>
       <c r="D3"/>
       <c r="E3"/>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4"/>
       <c r="D4"/>
       <c r="E4"/>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5"/>
       <c r="B5"/>
       <c r="C5"/>
       <c r="D5"/>
       <c r="E5"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6"/>
       <c r="E6"/>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7"/>
       <c r="D7"/>
       <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/admin/exel/product_import.xlsx
+++ b/admin/exel/product_import.xlsx
@@ -355,7 +355,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="G18" sqref="G18"/>
@@ -453,6 +453,106 @@
       <c r="G9"/>
       <c r="H9"/>
     </row>
+    <row r="10" spans="1:8">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+    </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
